--- a/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200214.xlsx
+++ b/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200214.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\疫情 213\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\COVID-19\data\unchecked\manual_collect\china\guangdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9533" uniqueCount="3315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9503" uniqueCount="3303">
   <si>
     <t>统计级别</t>
   </si>
@@ -10164,33 +10164,6 @@
   <si>
     <t>黔东南苗族侗族自治州</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从1开始累计</t>
-  </si>
-  <si>
-    <t>格式为“YYYY/MM/DD HH:MM”</t>
-  </si>
-  <si>
-    <t>参照规范文件填写，不确定的地区写“地区待确认”</t>
-  </si>
-  <si>
-    <t>参照规范文件填写</t>
-  </si>
-  <si>
-    <t>不能填0</t>
-  </si>
-  <si>
-    <t>所有内容，包括标题</t>
-  </si>
-  <si>
-    <t>值为“手动”、“自动”</t>
-  </si>
-  <si>
-    <t>值为“未核查”、“已核查”</t>
-  </si>
-  <si>
-    <t>值为“核查通过”、“核查未通过”</t>
   </si>
   <si>
     <t>序号</t>
@@ -10299,30 +10272,6 @@
     <rPh sb="0" eb="1">
       <t>zhong'guo</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能填0，正数核增，负数核减</t>
-    <rPh sb="0" eb="1">
-      <t>bu'neng'tian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zheng'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>he'zeng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fu'shu'he'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照规范文件填写，包含直辖市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>值为“国家级”、“省级”、“城市级”、“区县级”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10832,10 +10781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10886,231 +10835,202 @@
         <v>3251</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>3297</v>
+        <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>3252</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3252</v>
-      </c>
-      <c r="E1" s="16"/>
+        <v>3253</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3254</v>
+      </c>
       <c r="F1" s="16" t="s">
-        <v>3296</v>
+        <v>11</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>3253</v>
+        <v>1</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>3254</v>
+        <v>2</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>3255</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>3255</v>
+        <v>3260</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>3255</v>
+        <v>3261</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>3255</v>
+        <v>3262</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>3295</v>
+        <v>3263</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>3295</v>
-      </c>
-      <c r="S1" s="16"/>
+        <v>3264</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>3265</v>
+      </c>
       <c r="T1" s="16" t="s">
-        <v>3252</v>
+        <v>3266</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>3256</v>
-      </c>
-      <c r="V1" s="16"/>
+        <v>3267</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="W1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
+        <v>3268</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>3269</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>3270</v>
+      </c>
       <c r="Z1" s="16" t="s">
-        <v>3252</v>
+        <v>3271</v>
       </c>
       <c r="AA1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AB1" s="16"/>
+        <v>3272</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>3273</v>
+      </c>
       <c r="AC1" s="16" t="s">
-        <v>3258</v>
+        <v>3274</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>3252</v>
+        <v>3275</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AF1" s="16"/>
+        <v>3276</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>3277</v>
+      </c>
       <c r="AG1" s="16" t="s">
-        <v>3259</v>
-      </c>
-      <c r="AH1" s="16"/>
+        <v>3278</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>3279</v>
+      </c>
       <c r="AI1" s="16" t="s">
-        <v>3252</v>
+        <v>4</v>
       </c>
       <c r="AJ1" s="16" t="s">
-        <v>3252</v>
+        <v>3280</v>
       </c>
       <c r="AK1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AL1" s="16"/>
+        <v>3281</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>3282</v>
+      </c>
       <c r="AM1" s="16" t="s">
-        <v>3259</v>
-      </c>
-      <c r="AN1" s="16"/>
-    </row>
-    <row r="2" spans="1:40" s="18" customFormat="1" ht="15">
-      <c r="A2" s="16" t="s">
-        <v>3260</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>3261</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>3262</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3263</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="16" t="s">
+        <v>3283</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="B2" s="12" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43875</v>
+      </c>
+      <c r="D2" s="14">
+        <v>43876</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12">
+        <v>406</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13" t="s">
+        <v>3296</v>
+      </c>
+      <c r="T2" s="15">
+        <v>43876.37777777778</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>3297</v>
+      </c>
+      <c r="W2" s="15"/>
+      <c r="Z2" s="15">
+        <v>43876.409722222219</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>3298</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>3299</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>3300</v>
+      </c>
+      <c r="AD2" s="15">
+        <v>43876.430555555555</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>3298</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>3264</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>3265</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>3266</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>3267</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>3268</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>3269</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>3270</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>3271</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>3272</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>3273</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>3274</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>3275</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>3276</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>3277</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>3278</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>3279</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>3280</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>3281</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>3282</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>3283</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>3284</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>3285</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>3286</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>3287</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>3288</v>
-      </c>
-      <c r="AI2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>3289</v>
-      </c>
-      <c r="AK2" s="16" t="s">
-        <v>3290</v>
-      </c>
-      <c r="AL2" s="16" t="s">
-        <v>3291</v>
-      </c>
-      <c r="AM2" s="16" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AN2" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>3293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3305</v>
       </c>
       <c r="C3" s="14">
         <v>43875</v>
@@ -11119,71 +11039,61 @@
         <v>43876</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12">
-        <v>6</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12">
-        <v>406</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="13">
+        <v>7</v>
+      </c>
+      <c r="M3" s="13">
+        <v>335</v>
+      </c>
       <c r="S3" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T3" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W3" s="15"/>
       <c r="Z3" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD3" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE3" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF3" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG3" s="13" t="s">
-        <v>3314</v>
-      </c>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
+        <v>3302</v>
+      </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C4" s="14">
         <v>43875</v>
@@ -11192,61 +11102,61 @@
         <v>43876</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="I4" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M4" s="13">
-        <v>335</v>
+        <v>95</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T4" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W4" s="15"/>
       <c r="Z4" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD4" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE4" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C5" s="14">
         <v>43875</v>
@@ -11255,61 +11165,61 @@
         <v>43876</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="I5" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" s="13">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T5" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W5" s="15"/>
       <c r="Z5" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD5" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG5" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C6" s="14">
         <v>43875</v>
@@ -11318,61 +11228,64 @@
         <v>43876</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>203</v>
+        <v>417</v>
       </c>
       <c r="I6" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M6" s="13">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="P6" s="13">
+        <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T6" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W6" s="15"/>
       <c r="Z6" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD6" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE6" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG6" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C7" s="14">
         <v>43875</v>
@@ -11381,64 +11294,61 @@
         <v>43876</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="I7" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M7" s="13">
-        <v>81</v>
-      </c>
-      <c r="P7" s="13">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T7" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W7" s="15"/>
       <c r="Z7" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD7" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE7" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG7" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C8" s="14">
         <v>43875</v>
@@ -11447,61 +11357,61 @@
         <v>43876</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>424</v>
+        <v>332</v>
       </c>
       <c r="I8" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="13">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T8" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W8" s="15"/>
       <c r="Z8" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD8" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE8" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG8" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C9" s="14">
         <v>43875</v>
@@ -11510,61 +11420,58 @@
         <v>43876</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="I9" s="13">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="M9" s="13">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T9" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W9" s="15"/>
       <c r="Z9" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD9" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE9" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG9" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C10" s="14">
         <v>43875</v>
@@ -11573,58 +11480,58 @@
         <v>43876</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="M10" s="13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T10" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W10" s="15"/>
       <c r="Z10" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD10" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE10" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF10" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG10" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C11" s="14">
         <v>43875</v>
@@ -11633,58 +11540,58 @@
         <v>43876</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="M11" s="13">
         <v>22</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T11" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W11" s="15"/>
       <c r="Z11" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD11" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE11" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG11" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C12" s="14">
         <v>43875</v>
@@ -11693,58 +11600,62 @@
         <v>43876</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="M12" s="13">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="P12" s="13">
+        <v>1</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T12" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W12" s="15"/>
       <c r="Z12" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD12" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE12" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG12" s="13" t="s">
-        <v>3314</v>
-      </c>
+        <v>3302</v>
+      </c>
+      <c r="AI12" s="15"/>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C13" s="14">
         <v>43875</v>
@@ -11753,62 +11664,61 @@
         <v>43876</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>309</v>
+        <v>353</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
       </c>
       <c r="M13" s="13">
-        <v>17</v>
-      </c>
-      <c r="P13" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T13" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W13" s="15"/>
       <c r="Z13" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA13" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB13" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD13" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE13" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG13" s="13" t="s">
-        <v>3314</v>
-      </c>
-      <c r="AI13" s="15"/>
+        <v>3302</v>
+      </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C14" s="14">
         <v>43875</v>
@@ -11817,61 +11727,58 @@
         <v>43876</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="I14" s="13">
-        <v>1</v>
+        <v>397</v>
       </c>
       <c r="M14" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T14" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W14" s="15"/>
       <c r="Z14" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD14" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE14" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG14" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C15" s="14">
         <v>43875</v>
@@ -11880,58 +11787,58 @@
         <v>43876</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>397</v>
+        <v>285</v>
       </c>
       <c r="M15" s="13">
         <v>13</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T15" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W15" s="15"/>
       <c r="Z15" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB15" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD15" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE15" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG15" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C16" s="14">
         <v>43875</v>
@@ -11940,58 +11847,58 @@
         <v>43876</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="M16" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T16" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W16" s="15"/>
       <c r="Z16" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB16" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD16" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE16" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG16" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C17" s="14">
         <v>43875</v>
@@ -12000,58 +11907,61 @@
         <v>43876</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>408</v>
+        <v>87</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2</v>
       </c>
       <c r="M17" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T17" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W17" s="15"/>
       <c r="Z17" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD17" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE17" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF17" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C18" s="14">
         <v>43875</v>
@@ -12060,61 +11970,58 @@
         <v>43876</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="13">
-        <v>2</v>
+        <v>436</v>
       </c>
       <c r="M18" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T18" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V18" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W18" s="15"/>
       <c r="Z18" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD18" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE18" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG18" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C19" s="14">
         <v>43875</v>
@@ -12123,58 +12030,59 @@
         <v>43876</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="M19" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T19" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W19" s="15"/>
       <c r="Z19" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD19" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE19" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG19" s="13" t="s">
-        <v>3314</v>
-      </c>
+        <v>3302</v>
+      </c>
+      <c r="AI19" s="15"/>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C20" s="14">
         <v>43875</v>
@@ -12183,59 +12091,58 @@
         <v>43876</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="M20" s="13">
         <v>5</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T20" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V20" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W20" s="15"/>
       <c r="Z20" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD20" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE20" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG20" s="13" t="s">
-        <v>3314</v>
-      </c>
-      <c r="AI20" s="15"/>
+        <v>3302</v>
+      </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C21" s="14">
         <v>43875</v>
@@ -12244,58 +12151,58 @@
         <v>43876</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="M21" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T21" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W21" s="15"/>
       <c r="Z21" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD21" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE21" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG21" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C22" s="14">
         <v>43875</v>
@@ -12304,58 +12211,58 @@
         <v>43876</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="M22" s="13">
-        <v>3</v>
+        <v>3294</v>
+      </c>
+      <c r="K22" s="13">
+        <v>54</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T22" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W22" s="15"/>
       <c r="Z22" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA22" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB22" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC22" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD22" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE22" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG22" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C23" s="14">
         <v>43875</v>
@@ -12364,58 +12271,58 @@
         <v>43876</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="K23" s="13">
-        <v>54</v>
+        <v>3294</v>
+      </c>
+      <c r="N23" s="13">
+        <v>12</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T23" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W23" s="15"/>
       <c r="Z23" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA23" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB23" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC23" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD23" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE23" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG23" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="C24" s="14">
         <v>43875</v>
@@ -12424,58 +12331,58 @@
         <v>43876</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>3306</v>
-      </c>
-      <c r="N24" s="13">
-        <v>12</v>
+        <v>3294</v>
+      </c>
+      <c r="O24" s="13">
+        <v>386</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T24" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W24" s="15"/>
       <c r="Z24" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA24" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB24" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC24" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD24" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE24" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG24" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>3305</v>
+        <v>3295</v>
       </c>
       <c r="C25" s="14">
         <v>43875</v>
@@ -12484,123 +12391,68 @@
         <v>43876</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>3306</v>
+      <c r="I25" s="13">
+        <v>33</v>
+      </c>
+      <c r="K25" s="13">
+        <v>54</v>
+      </c>
+      <c r="M25" s="13">
+        <v>1294</v>
+      </c>
+      <c r="N25" s="13">
+        <v>12</v>
       </c>
       <c r="O25" s="13">
         <v>386</v>
       </c>
+      <c r="P25" s="13">
+        <v>2</v>
+      </c>
       <c r="S25" s="13" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="T25" s="15">
         <v>43876.37777777778</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="W25" s="15"/>
       <c r="Z25" s="15">
         <v>43876.409722222219</v>
       </c>
       <c r="AA25" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AB25" s="13" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="AC25" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AD25" s="15">
         <v>43876.430555555555</v>
       </c>
       <c r="AE25" s="13" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AG25" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="26" spans="1:35">
-      <c r="A26" s="13">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>3307</v>
-      </c>
-      <c r="C26" s="14">
-        <v>43875</v>
-      </c>
-      <c r="D26" s="14">
-        <v>43876</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>3294</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="13">
-        <v>33</v>
-      </c>
-      <c r="K26" s="13">
-        <v>54</v>
-      </c>
-      <c r="M26" s="13">
-        <v>1294</v>
-      </c>
-      <c r="N26" s="13">
-        <v>12</v>
-      </c>
-      <c r="O26" s="13">
-        <v>386</v>
-      </c>
-      <c r="P26" s="13">
-        <v>2</v>
-      </c>
-      <c r="S26" s="13" t="s">
-        <v>3308</v>
-      </c>
-      <c r="T26" s="15">
-        <v>43876.37777777778</v>
-      </c>
-      <c r="V26" s="13" t="s">
-        <v>3309</v>
-      </c>
       <c r="W26" s="15"/>
-      <c r="Z26" s="15">
-        <v>43876.409722222219</v>
-      </c>
-      <c r="AA26" s="13" t="s">
-        <v>3310</v>
-      </c>
-      <c r="AB26" s="13" t="s">
-        <v>3311</v>
-      </c>
-      <c r="AC26" s="13" t="s">
-        <v>3312</v>
-      </c>
-      <c r="AD26" s="15">
-        <v>43876.430555555555</v>
-      </c>
-      <c r="AE26" s="13" t="s">
-        <v>3310</v>
-      </c>
-      <c r="AF26" s="13" t="s">
-        <v>3313</v>
-      </c>
-      <c r="AG26" s="13" t="s">
-        <v>3314</v>
-      </c>
+      <c r="Z26" s="15"/>
+      <c r="AD26" s="15"/>
     </row>
     <row r="27" spans="1:35">
       <c r="W27" s="15"/>
@@ -12612,38 +12464,30 @@
       <c r="Z28" s="15"/>
       <c r="AD28" s="15"/>
     </row>
-    <row r="29" spans="1:35">
-      <c r="W29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AD29" s="15"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK1048576 AA3:AA1048576 AE3:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AA2:AA1048576 AE2:AE1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM1048576 AG3:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1048576">
-      <formula1>INDIRECT($F4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>INDIRECT($G3)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>INDIRECT($F3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12654,7 +12498,7 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12691,7 +12535,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3304</v>
+        <v>3292</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -12809,7 +12653,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3303</v>
+        <v>3291</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>412</v>
@@ -13486,7 +13330,7 @@
         <v>212</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>213</v>
@@ -13604,7 +13448,7 @@
         <v>240</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>241</v>
@@ -13710,7 +13554,7 @@
         <v>264</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>265</v>
@@ -13831,7 +13675,7 @@
         <v>292</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>293</v>
@@ -13843,7 +13687,7 @@
         <v>3216</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>3243</v>
@@ -13880,7 +13724,7 @@
         <v>299</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>300</v>
@@ -13898,7 +13742,7 @@
         <v>303</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>304</v>
@@ -13931,7 +13775,7 @@
         <v>312</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>313</v>
@@ -14035,7 +13879,7 @@
         <v>336</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>337</v>
@@ -14072,10 +13916,10 @@
         <v>449</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>344</v>
@@ -14093,13 +13937,13 @@
         <v>347</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>348</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>349</v>
@@ -14166,7 +14010,7 @@
         <v>450</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>362</v>
@@ -14251,13 +14095,13 @@
         <v>379</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>1129</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>380</v>
@@ -14327,7 +14171,7 @@
         <v>452</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>1130</v>
@@ -14345,13 +14189,13 @@
         <v>396</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>397</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>398</v>
@@ -14366,7 +14210,7 @@
         <v>400</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>391</v>
@@ -14378,7 +14222,7 @@
         <v>3222</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -14453,19 +14297,19 @@
         <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>415</v>
@@ -14486,7 +14330,7 @@
         <v>419</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>413</v>
@@ -14516,7 +14360,7 @@
         <v>423</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>424</v>
@@ -14555,7 +14399,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="U20" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>430</v>
@@ -14576,7 +14420,7 @@
         <v>429</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN20" s="1"/>
     </row>
@@ -14597,7 +14441,7 @@
         <v>436</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>2368</v>
@@ -14639,7 +14483,7 @@
         <v>438</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN22" s="1"/>
     </row>
@@ -14657,13 +14501,13 @@
       </c>
       <c r="F23" s="2"/>
       <c r="X23" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>2370</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>442</v>
@@ -14736,7 +14580,7 @@
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
@@ -15048,7 +14892,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="AA40" s="19" t="s">
-        <v>3300</v>
+        <v>3288</v>
       </c>
       <c r="AN40" s="1"/>
     </row>
@@ -15066,7 +14910,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="AA41" s="19" t="s">
-        <v>3301</v>
+        <v>3289</v>
       </c>
       <c r="AN41" s="1"/>
     </row>
@@ -15084,7 +14928,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="AA42" s="19" t="s">
-        <v>3302</v>
+        <v>3290</v>
       </c>
       <c r="AN42" s="1"/>
     </row>
@@ -15102,7 +14946,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="AA43" s="2" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN43" s="1"/>
     </row>
@@ -56479,7 +56323,7 @@
         <v>38</v>
       </c>
       <c r="B2744" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="C2744" s="2"/>
       <c r="D2744" s="2"/>
